--- a/grails-app/conf/spreadsheet/Transaction_List.xlsx
+++ b/grails-app/conf/spreadsheet/Transaction_List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Consultation Mode</t>
   </si>
@@ -30,15 +30,9 @@
     <t>User Goal</t>
   </si>
   <si>
-    <t>Interact Times</t>
-  </si>
-  <si>
     <t>Prep Time (enter in minutes)</t>
   </si>
   <si>
-    <t>Event Length (enter in minutes)</t>
-  </si>
-  <si>
     <t>Date of Consultation (mm/dd/yyyy)</t>
   </si>
   <si>
@@ -60,12 +54,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Fill in all the relevant cells.  Copy and paste across for bulk input.  Do not leavee spaces between columns or delete rows.</t>
-  </si>
-  <si>
-    <t>When completed, save the file in this form:  Pennkeynamemmddyyyyy (example: zucca01262012)</t>
-  </si>
-  <si>
     <t>Library Unit</t>
   </si>
   <si>
@@ -81,14 +69,17 @@
     <t>Department</t>
   </si>
   <si>
-    <t>Consultation EXCEL Submission Form</t>
+    <t>Interact Occurrences</t>
+  </si>
+  <si>
+    <t>Event Length (min)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,39 +102,33 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Bell Gothic Std Black"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Bell Gothic Std Light"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Bell Gothic Std Black"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Bell Gothic Std Black"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Bell Gothic Std Black"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Bell Gothic Std Black"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Bell Gothic Std Light"/>
       <family val="2"/>
@@ -157,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -165,29 +150,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,218 +481,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.140625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:19" s="11" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" ht="15.75">
-      <c r="B6" s="11" t="s">
+      <c r="L1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="15">
-      <c r="B8" s="5" t="s">
+      <c r="O1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="7"/>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" ht="15">
-      <c r="B10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75">
-      <c r="B12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75">
-      <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" ht="18">
-      <c r="A15" s="2"/>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75">
-      <c r="B16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="10"/>
+      <c r="P1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="B4" s="4"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" ht="15">
+      <c r="C6" s="6"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" ht="15">
+      <c r="C8" s="6"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" ht="18">
+      <c r="A10" s="2"/>
+      <c r="C10" s="6"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" ht="15">
-      <c r="B18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="10"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:3" ht="15">
-      <c r="B20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="C21" s="10"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" ht="18">
+      <c r="A21" s="2"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" ht="15">
-      <c r="B22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="10"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="1:3" ht="15">
-      <c r="B24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="10"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="1:3" ht="18">
-      <c r="A26" s="2"/>
-      <c r="B26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="1:3" ht="15">
-      <c r="B27" s="5"/>
-      <c r="C27" s="10"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="B26" s="3"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" ht="15">
-      <c r="B28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="10"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" spans="1:3" ht="15">
-      <c r="B30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="10"/>
-    </row>
-    <row r="31" spans="1:3" ht="15">
-      <c r="B31" s="5"/>
-      <c r="C31" s="10"/>
-    </row>
-    <row r="32" spans="1:3" ht="15">
-      <c r="B32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="10"/>
-    </row>
-    <row r="33" spans="2:3" ht="15">
-      <c r="B33" s="5"/>
-      <c r="C33" s="10"/>
-    </row>
-    <row r="34" spans="2:3" ht="15">
-      <c r="B34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="35" spans="2:3" ht="15">
-      <c r="B35" s="5"/>
-      <c r="C35" s="10"/>
-    </row>
-    <row r="36" spans="2:3" ht="15">
-      <c r="B36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="10"/>
-    </row>
-    <row r="37" spans="2:3" ht="15">
-      <c r="B37" s="5"/>
-      <c r="C37" s="10"/>
-    </row>
-    <row r="38" spans="2:3" ht="15">
-      <c r="B38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="10"/>
-    </row>
-    <row r="39" spans="2:3" ht="15">
-      <c r="B39" s="5"/>
-      <c r="C39" s="10"/>
-    </row>
-    <row r="40" spans="2:3" ht="15">
-      <c r="B40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="10"/>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="C41" s="10"/>
-    </row>
-    <row r="42" spans="2:3" ht="15">
-      <c r="B42" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="10"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
